--- a/Análises Esportivas/ciclos de Netuno/6 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/6 - editável_ciclos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Diretrizes" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
   <si>
     <t xml:space="preserve">Ciclos</t>
   </si>
@@ -153,6 +153,9 @@
     <t xml:space="preserve">Data Fim</t>
   </si>
   <si>
+    <t xml:space="preserve">18-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banca Atual</t>
   </si>
   <si>
@@ -175,6 +178,12 @@
   </si>
   <si>
     <t xml:space="preserve">Saque final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-10</t>
   </si>
 </sst>
 </file>
@@ -366,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -630,6 +639,13 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -663,7 +679,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1000,6 +1016,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="9" fillId="4" borderId="23" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1350,19 +1370,19 @@
       </c>
       <c r="C8" s="28" t="n">
         <f aca="false">'Ciclo 1'!N5</f>
-        <v>4.17</v>
+        <v>6.12</v>
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
-        <v>3</v>
+        <v>6.94</v>
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
-        <v>4.5</v>
+        <v>9.82</v>
       </c>
       <c r="F8" s="29" t="n">
         <f aca="false">'Ciclo 4'!N5</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="31" t="n">
         <f aca="false">'Ciclo 5'!N5</f>
@@ -1384,23 +1404,23 @@
       </c>
       <c r="C9" s="24" t="n">
         <f aca="false">C8</f>
-        <v>4.17</v>
+        <v>6.12</v>
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>4.17</v>
+        <v>10.06</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>5.67</v>
+        <v>15.38</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>7.17</v>
+        <v>12.38</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>10.17</v>
+        <v>12.38</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1409,7 +1429,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>1.17</v>
+        <v>3.38</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1420,19 +1440,19 @@
       </c>
       <c r="C10" s="24" t="n">
         <f aca="false">'Ciclo 1'!Q9</f>
-        <v>1.17</v>
+        <v>3.12</v>
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="F10" s="32" t="n">
         <f aca="false">'Ciclo 4'!Q9</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G10" s="33" t="n">
         <f aca="false">'Ciclo 5'!Q9</f>
@@ -1584,8 +1604,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1695,14 +1715,16 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="52"/>
+      <c r="N3" s="52" t="s">
+        <v>42</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G395)+Q2</f>
-        <v>4.17</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,11 +1771,11 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>1.17</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,19 +1819,19 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>4.17</v>
+        <v>6.12</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0.39</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1844,7 @@
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
-        <v>3.46058495507813</v>
+        <v>3.46058495507812</v>
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
@@ -1853,11 +1875,11 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>1.17</v>
+        <v>3.12</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -1883,14 +1905,16 @@
         <f aca="false">D7*J7</f>
         <v>0.163610828086571</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58" t="n">
+        <v>0.16</v>
+      </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>0.0383693045563549</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>-0.00361082808657098</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!C$5)</f>
@@ -1902,19 +1926,19 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0.39</v>
+        <v>1.04</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I395)</f>
-        <v>0.549041264491969</v>
+        <v>1.82639372496422</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,7 +1947,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -1931,20 +1955,22 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.190757217612304</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
-        <v>0.166728397185109</v>
-      </c>
-      <c r="G8" s="58"/>
+        <v>0.166728397185108</v>
+      </c>
+      <c r="G8" s="58" t="n">
+        <v>0.37</v>
+      </c>
       <c r="H8" s="67" t="n">
         <f aca="false">IF(G8=0,,G8/C8)</f>
-        <v>0</v>
+        <v>0.0854503464203233</v>
       </c>
       <c r="I8" s="68" t="n">
         <f aca="false">IF(G8=0,,G8-F8)</f>
-        <v>0</v>
+        <v>0.203271602814892</v>
       </c>
       <c r="J8" s="61" t="n">
         <f aca="false">J7*(1-Diretrizes!C$5)</f>
@@ -1967,7 +1993,7 @@
       </c>
       <c r="C9" s="65" t="n">
         <f aca="false">IF(G8&lt;&gt;0,C8+G8,)</f>
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="D9" s="66" t="n">
         <f aca="false">D8*(1+J8)</f>
@@ -1975,20 +2001,22 @@
       </c>
       <c r="E9" s="65" t="n">
         <f aca="false">C9*J9</f>
-        <v>0</v>
+        <v>0.201881050740967</v>
       </c>
       <c r="F9" s="66" t="n">
         <f aca="false">D9*J9</f>
         <v>0.169721741300606</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58" t="n">
+        <v>0.47</v>
+      </c>
       <c r="H9" s="67" t="n">
         <f aca="false">IF(G9=0,,G9/C9)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I9" s="68" t="n">
         <f aca="false">IF(G9=0,,G9-F9)</f>
-        <v>0</v>
+        <v>0.300278258699394</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">J8*(1-Diretrizes!C$5)</f>
@@ -2000,7 +2028,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!C7</f>
@@ -2008,11 +2036,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 2'!Q2)</f>
-        <v>1.17</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2021,7 +2049,7 @@
       </c>
       <c r="C10" s="65" t="n">
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="D10" s="66" t="n">
         <f aca="false">D9*(1+J9)</f>
@@ -2029,20 +2057,22 @@
       </c>
       <c r="E10" s="65" t="n">
         <f aca="false">C10*J10</f>
-        <v>0</v>
+        <v>0.216517426919687</v>
       </c>
       <c r="F10" s="66" t="n">
         <f aca="false">D10*J10</f>
         <v>0.172586572955467</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="58" t="n">
+        <v>0.95</v>
+      </c>
       <c r="H10" s="67" t="n">
         <f aca="false">IF(G10=0,,G10/C10)</f>
-        <v>0</v>
+        <v>0.183752417794971</v>
       </c>
       <c r="I10" s="68" t="n">
         <f aca="false">IF(G10=0,,G10-F10)</f>
-        <v>0</v>
+        <v>0.777413427044533</v>
       </c>
       <c r="J10" s="61" t="n">
         <f aca="false">J9*(1-Diretrizes!C$5)</f>
@@ -2062,15 +2092,15 @@
       </c>
       <c r="C11" s="65" t="n">
         <f aca="false">IF(G10&lt;&gt;0,C10+G10,)</f>
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="D11" s="66" t="n">
         <f aca="false">D10*(1+J10)</f>
-        <v>4.29360627503579</v>
+        <v>4.29360627503578</v>
       </c>
       <c r="E11" s="65" t="n">
         <f aca="false">C11*J11</f>
-        <v>0</v>
+        <v>0.249895451920652</v>
       </c>
       <c r="F11" s="66" t="n">
         <f aca="false">D11*J11</f>
@@ -2248,7 +2278,7 @@
       </c>
       <c r="F15" s="66" t="n">
         <f aca="false">D15*J15</f>
-        <v>0.18486512942837</v>
+        <v>0.184865129428371</v>
       </c>
       <c r="G15" s="58"/>
       <c r="H15" s="67" t="n">
@@ -2291,7 +2321,7 @@
       </c>
       <c r="F16" s="66" t="n">
         <f aca="false">D16*J16</f>
-        <v>0.186894471478971</v>
+        <v>0.18689447147897</v>
       </c>
       <c r="G16" s="58"/>
       <c r="H16" s="67" t="n">
@@ -2510,7 +2540,8 @@
         <v>0</v>
       </c>
       <c r="D21" s="66" t="n">
-        <v>1</v>
+        <f aca="false">D20*(1+J20)</f>
+        <v>6.14661199889654</v>
       </c>
       <c r="E21" s="65" t="n">
         <f aca="false">C21*J21</f>
@@ -2518,7 +2549,7 @@
       </c>
       <c r="F21" s="66" t="n">
         <f aca="false">D21*J21</f>
-        <v>0.0316995492554425</v>
+        <v>0.194844829813115</v>
       </c>
       <c r="G21" s="58" t="n">
         <v>0</v>
@@ -2537,7 +2568,7 @@
       </c>
       <c r="K21" s="62" t="str">
         <f aca="false">IF(AND(D21&gt;$N$9,D20&lt;$N$9),"OK","NOK")</f>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
       <c r="L21" s="62"/>
       <c r="M21" s="75"/>
@@ -2555,8 +2586,8 @@
         <v>0</v>
       </c>
       <c r="D22" s="66" t="n">
-        <f aca="false">D20*(1+J20)</f>
-        <v>6.14661199889654</v>
+        <f aca="false">D21*(1+J21)</f>
+        <v>6.34145682870966</v>
       </c>
       <c r="E22" s="65" t="n">
         <f aca="false">C22*J22</f>
@@ -2564,7 +2595,7 @@
       </c>
       <c r="F22" s="66" t="n">
         <f aca="false">D22*J22</f>
-        <v>0.189973709067787</v>
+        <v>0.19599579001562</v>
       </c>
       <c r="G22" s="58" t="n">
         <v>0</v>
@@ -2583,7 +2614,7 @@
       </c>
       <c r="K22" s="62" t="str">
         <f aca="false">IF(AND(D22&gt;$N$9,D21&lt;$N$9),"OK","NOK")</f>
-        <v>OK</v>
+        <v>NOK</v>
       </c>
       <c r="L22" s="62"/>
       <c r="M22" s="75"/>
@@ -2602,7 +2633,7 @@
       </c>
       <c r="D23" s="66" t="n">
         <f aca="false">D22*(1+J22)</f>
-        <v>6.33658570796433</v>
+        <v>6.53745261872528</v>
       </c>
       <c r="E23" s="65" t="n">
         <f aca="false">C23*J23</f>
@@ -2610,7 +2641,7 @@
       </c>
       <c r="F23" s="66" t="n">
         <f aca="false">D23*J23</f>
-        <v>0.190949107042126</v>
+        <v>0.197002107666091</v>
       </c>
       <c r="G23" s="58" t="n">
         <v>0</v>
@@ -2648,7 +2679,7 @@
       </c>
       <c r="D24" s="66" t="n">
         <f aca="false">D23*(1+J23)</f>
-        <v>6.52753481500646</v>
+        <v>6.73445472639137</v>
       </c>
       <c r="E24" s="65" t="n">
         <f aca="false">C24*J24</f>
@@ -2656,7 +2687,7 @@
       </c>
       <c r="F24" s="66" t="n">
         <f aca="false">D24*J24</f>
-        <v>0.191785659741275</v>
+        <v>0.197865178708731</v>
       </c>
       <c r="G24" s="58" t="n">
         <v>0</v>
@@ -2694,7 +2725,7 @@
       </c>
       <c r="D25" s="66" t="n">
         <f aca="false">D24*(1+J24)</f>
-        <v>6.71932047474773</v>
+        <v>6.9323199051001</v>
       </c>
       <c r="E25" s="65" t="n">
         <f aca="false">C25*J25</f>
@@ -2702,7 +2733,7 @@
       </c>
       <c r="F25" s="66" t="n">
         <f aca="false">D25*J25</f>
-        <v>0.192485005919459</v>
+        <v>0.198586693845537</v>
       </c>
       <c r="G25" s="58" t="n">
         <v>0</v>
@@ -2740,7 +2771,7 @@
       </c>
       <c r="D26" s="66" t="n">
         <f aca="false">D25*(1+J25)</f>
-        <v>6.91180548066719</v>
+        <v>7.13090659894564</v>
       </c>
       <c r="E26" s="65" t="n">
         <f aca="false">C26*J26</f>
@@ -2748,7 +2779,7 @@
       </c>
       <c r="F26" s="66" t="n">
         <f aca="false">D26*J26</f>
-        <v>0.193049051725362</v>
+        <v>0.199168619649247</v>
       </c>
       <c r="G26" s="58" t="n">
         <v>0</v>
@@ -2786,7 +2817,7 @@
       </c>
       <c r="D27" s="66" t="n">
         <f aca="false">D26*(1+J26)</f>
-        <v>7.10485453239255</v>
+        <v>7.33007521859488</v>
       </c>
       <c r="E27" s="65" t="n">
         <f aca="false">C27*J27</f>
@@ -2794,7 +2825,7 @@
       </c>
       <c r="F27" s="66" t="n">
         <f aca="false">D27*J27</f>
-        <v>0.19347995225161</v>
+        <v>0.19961317952795</v>
       </c>
       <c r="G27" s="58" t="n">
         <v>0</v>
@@ -2832,7 +2863,7 @@
       </c>
       <c r="D28" s="66" t="n">
         <f aca="false">D27*(1+J27)</f>
-        <v>7.29833448464416</v>
+        <v>7.52968839812283</v>
       </c>
       <c r="E28" s="65" t="n">
         <f aca="false">C28*J28</f>
@@ -2840,7 +2871,7 @@
       </c>
       <c r="F28" s="66" t="n">
         <f aca="false">D28*J28</f>
-        <v>0.193780093053006</v>
+        <v>0.199922834657464</v>
       </c>
       <c r="G28" s="58" t="n">
         <v>0</v>
@@ -2878,7 +2909,7 @@
       </c>
       <c r="D29" s="66" t="n">
         <f aca="false">D28*(1+J28)</f>
-        <v>7.49211457769717</v>
+        <v>7.7296112327803</v>
       </c>
       <c r="E29" s="65" t="n">
         <f aca="false">C29*J29</f>
@@ -2886,7 +2917,7 @@
       </c>
       <c r="F29" s="66" t="n">
         <f aca="false">D29*J29</f>
-        <v>0.193952071737392</v>
+        <v>0.200100264988627</v>
       </c>
       <c r="G29" s="58" t="n">
         <v>0</v>
@@ -2924,7 +2955,7 @@
       </c>
       <c r="D30" s="66" t="n">
         <f aca="false">D29*(1+J29)</f>
-        <v>7.68606664943456</v>
+        <v>7.92971149776892</v>
       </c>
       <c r="E30" s="65" t="n">
         <f aca="false">C30*J30</f>
@@ -2932,7 +2963,7 @@
       </c>
       <c r="F30" s="66" t="n">
         <f aca="false">D30*J30</f>
-        <v>0.193998679724145</v>
+        <v>0.200148350427552</v>
       </c>
       <c r="G30" s="58" t="n">
         <v>0</v>
@@ -2960,7 +2991,7 @@
       <c r="P30" s="50"/>
       <c r="Q30" s="75"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="55" t="n">
         <v>29</v>
       </c>
@@ -2970,7 +3001,7 @@
       </c>
       <c r="D31" s="66" t="n">
         <f aca="false">D30*(1+J30)</f>
-        <v>7.88006532915871</v>
+        <v>8.12985984819648</v>
       </c>
       <c r="E31" s="65" t="n">
         <f aca="false">C31*J31</f>
@@ -2978,7 +3009,7 @@
       </c>
       <c r="F31" s="66" t="n">
         <f aca="false">D31*J31</f>
-        <v>0.193922884256609</v>
+        <v>0.200070152277858</v>
       </c>
       <c r="G31" s="58" t="n">
         <v>0</v>
@@ -3006,7 +3037,7 @@
       <c r="P31" s="50"/>
       <c r="Q31" s="75"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="55" t="n">
         <v>30</v>
       </c>
@@ -3016,7 +3047,7 @@
       </c>
       <c r="D32" s="66" t="n">
         <f aca="false">D31*(1+J31)</f>
-        <v>8.07398821341532</v>
+        <v>8.32993000047434</v>
       </c>
       <c r="E32" s="65" t="n">
         <f aca="false">C32*J32</f>
@@ -3024,7 +3055,7 @@
       </c>
       <c r="F32" s="66" t="n">
         <f aca="false">D32*J32</f>
-        <v>0.193727810746128</v>
+        <v>0.199868895025024</v>
       </c>
       <c r="G32" s="58" t="n">
         <v>0</v>
@@ -3052,7 +3083,7 @@
       <c r="P32" s="50"/>
       <c r="Q32" s="75"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="55" t="n">
         <v>31</v>
       </c>
@@ -3062,7 +3093,7 @@
       </c>
       <c r="D33" s="66" t="n">
         <f aca="false">D32*(1+J32)</f>
-        <v>8.26771602416144</v>
+        <v>8.52979889549936</v>
       </c>
       <c r="E33" s="65" t="n">
         <f aca="false">C33*J33</f>
@@ -3070,7 +3101,7 @@
       </c>
       <c r="F33" s="66" t="n">
         <f aca="false">D33*J33</f>
-        <v>0.193416725516882</v>
+        <v>0.19954794853423</v>
       </c>
       <c r="G33" s="58" t="n">
         <v>0</v>
@@ -3098,7 +3129,7 @@
       <c r="P33" s="50"/>
       <c r="Q33" s="75"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="55" t="n">
         <v>32</v>
       </c>
@@ -3108,7 +3139,7 @@
       </c>
       <c r="D34" s="66" t="n">
         <f aca="false">D33*(1+J33)</f>
-        <v>8.46113274967832</v>
+        <v>8.72934684403359</v>
       </c>
       <c r="E34" s="65" t="n">
         <f aca="false">C34*J34</f>
@@ -3116,7 +3147,7 @@
       </c>
       <c r="F34" s="66" t="n">
         <f aca="false">D34*J34</f>
-        <v>0.19299301901254</v>
+        <v>0.199110810724684</v>
       </c>
       <c r="G34" s="58" t="n">
         <v>0</v>
@@ -3144,7 +3175,7 @@
       <c r="P34" s="50"/>
       <c r="Q34" s="75"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="55" t="n">
         <v>33</v>
       </c>
@@ -3154,7 +3185,7 @@
       </c>
       <c r="D35" s="66" t="n">
         <f aca="false">D34*(1+J34)</f>
-        <v>8.65412576869086</v>
+        <v>8.92845765475827</v>
       </c>
       <c r="E35" s="65" t="n">
         <f aca="false">C35*J35</f>
@@ -3162,7 +3193,7 @@
       </c>
       <c r="F35" s="66" t="n">
         <f aca="false">D35*J35</f>
-        <v>0.19246018951782</v>
+        <v>0.198561090775152</v>
       </c>
       <c r="G35" s="58" t="n">
         <v>0</v>
@@ -3190,7 +3221,7 @@
       <c r="P35" s="50"/>
       <c r="Q35" s="75"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="55" t="n">
         <v>34</v>
       </c>
@@ -3200,7 +3231,7 @@
       </c>
       <c r="D36" s="66" t="n">
         <f aca="false">D35*(1+J35)</f>
-        <v>8.84658595820869</v>
+        <v>9.12701874553343</v>
       </c>
       <c r="E36" s="65" t="n">
         <f aca="false">C36*J36</f>
@@ -3208,7 +3239,7 @@
       </c>
       <c r="F36" s="66" t="n">
         <f aca="false">D36*J36</f>
-        <v>0.191821827440472</v>
+        <v>0.19790249290769</v>
       </c>
       <c r="G36" s="58" t="n">
         <v>0</v>
@@ -3236,7 +3267,7 @@
       <c r="P36" s="50"/>
       <c r="Q36" s="75"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="55" t="n">
         <v>35</v>
       </c>
@@ -3246,7 +3277,7 @@
       </c>
       <c r="D37" s="66" t="n">
         <f aca="false">D36*(1+J36)</f>
-        <v>9.03840778564916</v>
+        <v>9.32492123844112</v>
       </c>
       <c r="E37" s="65" t="n">
         <f aca="false">C37*J37</f>
@@ -3254,7 +3285,7 @@
       </c>
       <c r="F37" s="66" t="n">
         <f aca="false">D37*J37</f>
-        <v>0.191081600191992</v>
+        <v>0.197138800789087</v>
       </c>
       <c r="G37" s="58" t="n">
         <v>0</v>
@@ -3282,7 +3313,7 @@
       <c r="P37" s="50"/>
       <c r="Q37" s="75"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="55" t="n">
         <v>36</v>
       </c>
@@ -3292,7 +3323,7 @@
       </c>
       <c r="D38" s="66" t="n">
         <f aca="false">D37*(1+J37)</f>
-        <v>9.22948938584115</v>
+        <v>9.5220600392302</v>
       </c>
       <c r="E38" s="65" t="n">
         <f aca="false">C38*J38</f>
@@ -3300,7 +3331,7 @@
       </c>
       <c r="F38" s="66" t="n">
         <f aca="false">D38*J38</f>
-        <v>0.19024323769853</v>
+        <v>0.19627386258247</v>
       </c>
       <c r="G38" s="58" t="n">
         <v>0</v>
@@ -3328,7 +3359,7 @@
       <c r="P38" s="50"/>
       <c r="Q38" s="75"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="55" t="n">
         <v>37</v>
       </c>
@@ -3338,7 +3369,7 @@
       </c>
       <c r="D39" s="66" t="n">
         <f aca="false">D38*(1+J38)</f>
-        <v>9.41973262353968</v>
+        <v>9.71833390181267</v>
       </c>
       <c r="E39" s="65" t="n">
         <f aca="false">C39*J39</f>
@@ -3346,7 +3377,7 @@
       </c>
       <c r="F39" s="66" t="n">
         <f aca="false">D39*J39</f>
-        <v>0.189310518567058</v>
+        <v>0.195311576674948</v>
       </c>
       <c r="G39" s="58" t="n">
         <v>0</v>
@@ -3374,7 +3405,7 @@
       <c r="P39" s="50"/>
       <c r="Q39" s="75"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="55" t="n">
         <v>38</v>
       </c>
@@ -3384,7 +3415,7 @@
       </c>
       <c r="D40" s="66" t="n">
         <f aca="false">D39*(1+J39)</f>
-        <v>9.60904314210674</v>
+        <v>9.91364547848762</v>
       </c>
       <c r="E40" s="65" t="n">
         <f aca="false">C40*J40</f>
@@ -3392,7 +3423,7 @@
       </c>
       <c r="F40" s="66" t="n">
         <f aca="false">D40*J40</f>
-        <v>0.18828725692586</v>
+        <v>0.194255878100953</v>
       </c>
       <c r="G40" s="58" t="n">
         <v>0</v>
@@ -3420,7 +3451,7 @@
       <c r="P40" s="50"/>
       <c r="Q40" s="75"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="55" t="n">
         <v>39</v>
       </c>
@@ -3430,7 +3461,7 @@
       </c>
       <c r="D41" s="66" t="n">
         <f aca="false">D40*(1+J40)</f>
-        <v>9.7973303990326</v>
+        <v>10.1079013565886</v>
       </c>
       <c r="E41" s="65" t="n">
         <f aca="false">C41*J41</f>
@@ -3438,7 +3469,7 @@
       </c>
       <c r="F41" s="66" t="n">
         <f aca="false">D41*J41</f>
-        <v>0.187177289952837</v>
+        <v>0.193110725675197</v>
       </c>
       <c r="G41" s="58" t="n">
         <v>0</v>
@@ -3466,7 +3497,7 @@
       <c r="P41" s="50"/>
       <c r="Q41" s="75"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="55" t="n">
         <v>40</v>
       </c>
@@ -3476,7 +3507,7 @@
       </c>
       <c r="D42" s="66" t="n">
         <f aca="false">D41*(1+J41)</f>
-        <v>9.98450768898543</v>
+        <v>10.3010120822638</v>
       </c>
       <c r="E42" s="65" t="n">
         <f aca="false">C42*J42</f>
@@ -3484,7 +3515,7 @@
       </c>
       <c r="F42" s="66" t="n">
         <f aca="false">D42*J42</f>
-        <v>0.185984466099973</v>
+        <v>0.191880089843857</v>
       </c>
       <c r="G42" s="58" t="n">
         <v>0</v>
@@ -3512,7 +3543,7 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="75"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="55" t="n">
         <v>41</v>
       </c>
@@ -3522,7 +3553,7 @@
       </c>
       <c r="D43" s="66" t="n">
         <f aca="false">D42*(1+J42)</f>
-        <v>10.1704921550854</v>
+        <v>10.4928921721076</v>
       </c>
       <c r="E43" s="65" t="n">
         <f aca="false">C43*J43</f>
@@ -3530,7 +3561,7 @@
       </c>
       <c r="F43" s="66" t="n">
         <f aca="false">D43*J43</f>
-        <v>0.184712634017611</v>
+        <v>0.190567941257755</v>
       </c>
       <c r="G43" s="58" t="n">
         <v>0</v>
@@ -3558,7 +3589,7 @@
       <c r="P43" s="50"/>
       <c r="Q43" s="75"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="55" t="n">
         <v>42</v>
       </c>
@@ -3568,7 +3599,7 @@
       </c>
       <c r="D44" s="66" t="n">
         <f aca="false">D43*(1+J43)</f>
-        <v>10.355204789103</v>
+        <v>10.6834601133654</v>
       </c>
       <c r="E44" s="65" t="n">
         <f aca="false">C44*J44</f>
@@ -3576,7 +3607,7 @@
       </c>
       <c r="F44" s="66" t="n">
         <f aca="false">D44*J44</f>
-        <v>0.183365632177872</v>
+        <v>0.18917824006685</v>
       </c>
       <c r="G44" s="58" t="n">
         <v>0</v>
@@ -3604,7 +3635,7 @@
       <c r="P44" s="50"/>
       <c r="Q44" s="75"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="55" t="n">
         <v>43</v>
       </c>
@@ -3614,7 +3645,7 @@
       </c>
       <c r="D45" s="66" t="n">
         <f aca="false">D44*(1+J44)</f>
-        <v>10.5385704212809</v>
+        <v>10.8726383534322</v>
       </c>
       <c r="E45" s="65" t="n">
         <f aca="false">C45*J45</f>
@@ -3622,7 +3653,7 @@
       </c>
       <c r="F45" s="66" t="n">
         <f aca="false">D45*J45</f>
-        <v>0.181947279192695</v>
+        <v>0.187714925931358</v>
       </c>
       <c r="G45" s="58" t="n">
         <v>0</v>
@@ -3650,7 +3681,7 @@
       <c r="P45" s="50"/>
       <c r="Q45" s="75"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="55" t="n">
         <v>44</v>
       </c>
@@ -3660,7 +3691,7 @@
       </c>
       <c r="D46" s="66" t="n">
         <f aca="false">D45*(1+J45)</f>
-        <v>10.7205177004736</v>
+        <v>11.0603532793636</v>
       </c>
       <c r="E46" s="65" t="n">
         <f aca="false">C46*J46</f>
@@ -3668,7 +3699,7 @@
       </c>
       <c r="F46" s="66" t="n">
         <f aca="false">D46*J46</f>
-        <v>0.180461364818464</v>
+        <v>0.186181908741231</v>
       </c>
       <c r="G46" s="58" t="n">
         <v>0</v>
@@ -3696,7 +3727,7 @@
       <c r="P46" s="50"/>
       <c r="Q46" s="75"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="55" t="n">
         <v>45</v>
       </c>
@@ -3706,7 +3737,7 @@
       </c>
       <c r="D47" s="66" t="n">
         <f aca="false">D46*(1+J46)</f>
-        <v>10.9009790652921</v>
+        <v>11.2465351881048</v>
       </c>
       <c r="E47" s="65" t="n">
         <f aca="false">C47*J47</f>
@@ -3714,7 +3745,7 @@
       </c>
       <c r="F47" s="66" t="n">
         <f aca="false">D47*J47</f>
-        <v>0.1789116416361</v>
+        <v>0.184583060032516</v>
       </c>
       <c r="G47" s="58" t="n">
         <v>0</v>
@@ -3742,7 +3773,7 @@
       <c r="P47" s="50"/>
       <c r="Q47" s="75"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="55" t="n">
         <v>46</v>
       </c>
@@ -3752,7 +3783,7 @@
       </c>
       <c r="D48" s="66" t="n">
         <f aca="false">D47*(1+J47)</f>
-        <v>11.0798907069281</v>
+        <v>11.4311182481373</v>
       </c>
       <c r="E48" s="65" t="n">
         <f aca="false">C48*J48</f>
@@ -3760,7 +3791,7 @@
       </c>
       <c r="F48" s="66" t="n">
         <f aca="false">D48*J48</f>
-        <v>0.177301817392783</v>
+        <v>0.182922205086305</v>
       </c>
       <c r="G48" s="58" t="n">
         <v>0</v>
@@ -3788,7 +3819,7 @@
       <c r="P48" s="50"/>
       <c r="Q48" s="75"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="55" t="n">
         <v>47</v>
       </c>
@@ -3798,7 +3829,7 @@
       </c>
       <c r="D49" s="66" t="n">
         <f aca="false">D48*(1+J48)</f>
-        <v>11.2571925243209</v>
+        <v>11.6140404532236</v>
       </c>
       <c r="E49" s="65" t="n">
         <f aca="false">C49*J49</f>
@@ -3806,7 +3837,7 @@
       </c>
       <c r="F49" s="66" t="n">
         <f aca="false">D49*J49</f>
-        <v>0.175635547989039</v>
+        <v>0.181203115693524</v>
       </c>
       <c r="G49" s="58" t="n">
         <v>0</v>
@@ -3834,7 +3865,7 @@
       <c r="P49" s="50"/>
       <c r="Q49" s="75"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="55" t="n">
         <v>48</v>
       </c>
@@ -3844,7 +3875,7 @@
       </c>
       <c r="D50" s="66" t="n">
         <f aca="false">D49*(1+J49)</f>
-        <v>11.43282807231</v>
+        <v>11.7952435689172</v>
       </c>
       <c r="E50" s="65" t="n">
         <f aca="false">C50*J50</f>
@@ -3852,7 +3883,7 @@
       </c>
       <c r="F50" s="66" t="n">
         <f aca="false">D50*J50</f>
-        <v>0.17391643109294</v>
+        <v>0.179429503566701</v>
       </c>
       <c r="G50" s="58" t="n">
         <v>0</v>
@@ -3880,7 +3911,7 @@
       <c r="P50" s="50"/>
       <c r="Q50" s="75"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="55" t="n">
         <v>49</v>
       </c>
@@ -3890,7 +3921,7 @@
       </c>
       <c r="D51" s="66" t="n">
         <f aca="false">D50*(1+J50)</f>
-        <v>11.6067445034029</v>
+        <v>11.9746730724839</v>
       </c>
       <c r="E51" s="65" t="n">
         <f aca="false">C51*J51</f>
@@ -3898,7 +3929,7 @@
       </c>
       <c r="F51" s="66" t="n">
         <f aca="false">D51*J51</f>
-        <v>0.172148000361365</v>
+        <v>0.177605014378046</v>
       </c>
       <c r="G51" s="58" t="n">
         <v>0</v>
@@ -3926,7 +3957,7 @@
       <c r="P51" s="50"/>
       <c r="Q51" s="75"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="81" t="n">
         <v>50</v>
       </c>
@@ -3936,24 +3967,24 @@
       </c>
       <c r="D52" s="82" t="n">
         <f aca="false">D51*(1+J51)</f>
-        <v>11.7788925037643</v>
+        <v>12.1522780868619</v>
       </c>
       <c r="E52" s="83" t="n">
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
-        <v>0.170333720246879</v>
+        <v>0.175733222401707</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -3990,7 +4021,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4007,10 +4038,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="45" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="45" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="45" width="2.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="45" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="45" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="45" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="45" width="2.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="45" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="45" width="1.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="45" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="45" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="45" width="9.13"/>
   </cols>
@@ -4056,7 +4087,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87" t="s">
+        <v>42</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -4085,32 +4118,36 @@
         <f aca="false">D3*J3</f>
         <v>0.15</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>-0.48</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.15</v>
+        <v>-0.63</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!D4</f>
         <v>0.05</v>
       </c>
       <c r="K3" s="62"/>
-      <c r="L3" s="87"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="87" t="s">
+        <v>51</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
-        <v>3</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4119,7 +4156,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -4127,20 +4164,22 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.12285</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
         <v>0.1535625</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58" t="n">
+        <v>1.12</v>
+      </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>0.9664375</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!D$5)</f>
@@ -4150,16 +4189,16 @@
         <f aca="false">IF(AND(D4&gt;$N$9,D3&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="88"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,7 +4207,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -4176,20 +4215,22 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.17301375</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
         <v>0.157022455078125</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="58" t="n">
+        <v>-0.36</v>
+      </c>
       <c r="H5" s="67" t="n">
         <f aca="false">IF(G5=0,,G5/C5)</f>
-        <v>0</v>
+        <v>-0.0989010989010989</v>
       </c>
       <c r="I5" s="68" t="n">
         <f aca="false">IF(G5=0,,G5-F5)</f>
-        <v>0</v>
+        <v>-0.517022455078125</v>
       </c>
       <c r="J5" s="61" t="n">
         <f aca="false">J4*(1-Diretrizes!D$5)</f>
@@ -4199,21 +4240,21 @@
         <f aca="false">IF(AND(D5&gt;$N$9,D4&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L5" s="87"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>3</v>
+        <v>6.94</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>1.31333333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,7 +4263,7 @@
       </c>
       <c r="C6" s="65" t="n">
         <f aca="false">IF(G5&lt;&gt;0,C5+G5,)</f>
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
@@ -4230,20 +4271,22 @@
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
-        <v>0</v>
+        <v>0.1520049375</v>
       </c>
       <c r="F6" s="66" t="n">
         <f aca="false">D6*J6</f>
         <v>0.160373780429906</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="58" t="n">
+        <v>0.63</v>
+      </c>
       <c r="H6" s="67" t="n">
         <f aca="false">IF(G6=0,,G6/C6)</f>
-        <v>0</v>
+        <v>0.192073170731707</v>
       </c>
       <c r="I6" s="68" t="n">
         <f aca="false">IF(G6=0,,G6-F6)</f>
-        <v>0</v>
+        <v>0.469626219570094</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">J5*(1-Diretrizes!D$5)</f>
@@ -4253,13 +4296,13 @@
         <f aca="false">IF(AND(D6&gt;$N$9,D5&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L6" s="87"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -4271,7 +4314,7 @@
       </c>
       <c r="C7" s="65" t="n">
         <f aca="false">IF(G6&lt;&gt;0,C6+G6,)</f>
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="D7" s="66" t="n">
         <f aca="false">D6*(1+J6)</f>
@@ -4279,20 +4322,22 @@
       </c>
       <c r="E7" s="65" t="n">
         <f aca="false">C7*J7</f>
-        <v>0</v>
+        <v>0.176670982617188</v>
       </c>
       <c r="F7" s="66" t="n">
         <f aca="false">D7*J7</f>
         <v>0.163610828086571</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58" t="n">
+        <v>0.17</v>
+      </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>0.006389171913429</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!D$5)</f>
@@ -4302,21 +4347,21 @@
         <f aca="false">IF(AND(D7&gt;$N$9,D6&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L7" s="87"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>1.31333333333333</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
-        <v>-0.15</v>
+        <v>2.29315880746628</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,7 +4370,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -4333,20 +4378,22 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.179743521445312</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
         <v>0.166728397185108</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="58" t="n">
+        <v>0.7</v>
+      </c>
       <c r="H8" s="67" t="n">
         <f aca="false">IF(G8=0,,G8/C8)</f>
-        <v>0</v>
+        <v>0.17156862745098</v>
       </c>
       <c r="I8" s="68" t="n">
         <f aca="false">IF(G8=0,,G8-F8)</f>
-        <v>0</v>
+        <v>0.533271602814892</v>
       </c>
       <c r="J8" s="61" t="n">
         <f aca="false">J7*(1-Diretrizes!D$5)</f>
@@ -4356,7 +4403,7 @@
         <f aca="false">IF(AND(D8&gt;$N$9,D7&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="88"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
       <c r="O8" s="53"/>
@@ -4369,7 +4416,7 @@
       </c>
       <c r="C9" s="65" t="n">
         <f aca="false">IF(G8&lt;&gt;0,C8+G8,)</f>
-        <v>0</v>
+        <v>4.78</v>
       </c>
       <c r="D9" s="66" t="n">
         <f aca="false">D8*(1+J8)</f>
@@ -4377,20 +4424,22 @@
       </c>
       <c r="E9" s="65" t="n">
         <f aca="false">C9*J9</f>
-        <v>0</v>
+        <v>0.205317323945068</v>
       </c>
       <c r="F9" s="66" t="n">
         <f aca="false">D9*J9</f>
         <v>0.169721741300606</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58" t="n">
+        <v>0.02</v>
+      </c>
       <c r="H9" s="67" t="n">
         <f aca="false">IF(G9=0,,G9/C9)</f>
-        <v>0</v>
+        <v>0.00418410041841004</v>
       </c>
       <c r="I9" s="68" t="n">
         <f aca="false">IF(G9=0,,G9-F9)</f>
-        <v>0</v>
+        <v>-0.149721741300606</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">J8*(1-Diretrizes!D$5)</f>
@@ -4400,9 +4449,9 @@
         <f aca="false">IF(AND(D9&gt;$N$9,D8&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!D7</f>
@@ -4410,11 +4459,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 3'!Q2)</f>
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4423,7 +4472,7 @@
       </c>
       <c r="C10" s="65" t="n">
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="D10" s="66" t="n">
         <f aca="false">D9*(1+J9)</f>
@@ -4431,20 +4480,22 @@
       </c>
       <c r="E10" s="65" t="n">
         <f aca="false">C10*J10</f>
-        <v>0</v>
+        <v>0.201021982439941</v>
       </c>
       <c r="F10" s="66" t="n">
         <f aca="false">D10*J10</f>
         <v>0.172586572955467</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="58" t="n">
+        <v>0.2</v>
+      </c>
       <c r="H10" s="67" t="n">
         <f aca="false">IF(G10=0,,G10/C10)</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="I10" s="68" t="n">
         <f aca="false">IF(G10=0,,G10-F10)</f>
-        <v>0</v>
+        <v>0.027413427044533</v>
       </c>
       <c r="J10" s="61" t="n">
         <f aca="false">J9*(1-Diretrizes!D$5)</f>
@@ -4464,7 +4515,7 @@
       </c>
       <c r="C11" s="65" t="n">
         <f aca="false">IF(G10&lt;&gt;0,C10+G10,)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="66" t="n">
         <f aca="false">D10*(1+J10)</f>
@@ -4472,20 +4523,22 @@
       </c>
       <c r="E11" s="65" t="n">
         <f aca="false">C11*J11</f>
-        <v>0</v>
+        <v>0.204162950915565</v>
       </c>
       <c r="F11" s="66" t="n">
         <f aca="false">D11*J11</f>
         <v>0.175319065436179</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="58" t="n">
+        <v>0.64</v>
+      </c>
       <c r="H11" s="67" t="n">
         <f aca="false">IF(G11=0,,G11/C11)</f>
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="I11" s="68" t="n">
         <f aca="false">IF(G11=0,,G11-F11)</f>
-        <v>0</v>
+        <v>0.464680934563821</v>
       </c>
       <c r="J11" s="61" t="n">
         <f aca="false">J10*(1-Diretrizes!D$5)</f>
@@ -4508,7 +4561,7 @@
       </c>
       <c r="C12" s="65" t="n">
         <f aca="false">IF(G11&lt;&gt;0,C11+G11,)</f>
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="D12" s="66" t="n">
         <f aca="false">D11*(1+J11)</f>
@@ -4516,20 +4569,22 @@
       </c>
       <c r="E12" s="65" t="n">
         <f aca="false">C12*J12</f>
-        <v>0</v>
+        <v>0.224538413416939</v>
       </c>
       <c r="F12" s="66" t="n">
         <f aca="false">D12*J12</f>
         <v>0.17791585206176</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="58" t="n">
+        <v>1.3</v>
+      </c>
       <c r="H12" s="67" t="n">
         <f aca="false">IF(G12=0,,G12/C12)</f>
-        <v>0</v>
+        <v>0.230496453900709</v>
       </c>
       <c r="I12" s="68" t="n">
         <f aca="false">IF(G12=0,,G12-F12)</f>
-        <v>0</v>
+        <v>1.12208414793824</v>
       </c>
       <c r="J12" s="61" t="n">
         <f aca="false">J11*(1-Diretrizes!D$5)</f>
@@ -4552,7 +4607,7 @@
       </c>
       <c r="C13" s="65" t="n">
         <f aca="false">IF(G12&lt;&gt;0,C12+G12,)</f>
-        <v>0</v>
+        <v>6.94</v>
       </c>
       <c r="D13" s="66" t="n">
         <f aca="false">D12*(1+J12)</f>
@@ -4560,7 +4615,7 @@
       </c>
       <c r="E13" s="65" t="n">
         <f aca="false">C13*J13</f>
-        <v>0</v>
+        <v>0.269386378437184</v>
       </c>
       <c r="F13" s="66" t="n">
         <f aca="false">D13*J13</f>
@@ -6337,7 +6392,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>12.1522780868619</v>
       </c>
@@ -6345,18 +6400,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.175733222401707</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -6390,7 +6445,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6449,7 +6504,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87" t="s">
+        <v>51</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -6479,14 +6536,16 @@
         <f aca="false">D3*J3</f>
         <v>0.225</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>0.47</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>0.104444444444444</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.225</v>
+        <v>0.245</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!E4</f>
@@ -6497,14 +6556,16 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="89" t="s">
+        <v>52</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G401)+Q2</f>
-        <v>4.5</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,7 +6574,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -6521,20 +6582,22 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.2422875</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
         <v>0.23034375</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58" t="n">
+        <v>0.26</v>
+      </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>0.0523138832997988</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>0.02965625</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!E$5)</f>
@@ -6549,11 +6612,11 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6562,7 +6625,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>5.23</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -6570,20 +6633,22 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.2485884375</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
         <v>0.235533682617188</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="58" t="n">
+        <v>0.08</v>
+      </c>
       <c r="H5" s="67" t="n">
         <f aca="false">IF(G5=0,,G5/C5)</f>
-        <v>0</v>
+        <v>0.0152963671128107</v>
       </c>
       <c r="I5" s="68" t="n">
         <f aca="false">IF(G5=0,,G5-F5)</f>
-        <v>0</v>
+        <v>-0.155533682617188</v>
       </c>
       <c r="J5" s="61" t="n">
         <f aca="false">J4*(1-Diretrizes!E$5)</f>
@@ -6595,19 +6660,19 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>4.5</v>
+        <v>9.82</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>1.18222222222222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6616,7 +6681,7 @@
       </c>
       <c r="C6" s="65" t="n">
         <f aca="false">IF(G5&lt;&gt;0,C5+G5,)</f>
-        <v>0</v>
+        <v>5.31</v>
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
@@ -6624,20 +6689,22 @@
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
-        <v>0</v>
+        <v>0.2460811640625</v>
       </c>
       <c r="F6" s="66" t="n">
         <f aca="false">D6*J6</f>
         <v>0.240560670644859</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="58" t="n">
+        <v>0.93</v>
+      </c>
       <c r="H6" s="67" t="n">
         <f aca="false">IF(G6=0,,G6/C6)</f>
-        <v>0</v>
+        <v>0.175141242937853</v>
       </c>
       <c r="I6" s="68" t="n">
         <f aca="false">IF(G6=0,,G6-F6)</f>
-        <v>0</v>
+        <v>0.689439329355141</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">J5*(1-Diretrizes!E$5)</f>
@@ -6649,11 +6716,11 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>5.32</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -6665,7 +6732,7 @@
       </c>
       <c r="C7" s="65" t="n">
         <f aca="false">IF(G6&lt;&gt;0,C6+G6,)</f>
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="D7" s="66" t="n">
         <f aca="false">D6*(1+J6)</f>
@@ -6673,20 +6740,22 @@
       </c>
       <c r="E7" s="65" t="n">
         <f aca="false">C7*J7</f>
-        <v>0</v>
+        <v>0.281950621875</v>
       </c>
       <c r="F7" s="66" t="n">
         <f aca="false">D7*J7</f>
         <v>0.245416242129856</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58" t="n">
+        <v>0.94</v>
+      </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>0.150641025641026</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>0.694583757870144</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!E$5)</f>
@@ -6698,19 +6767,19 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>1.18222222222222</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I401)</f>
-        <v>-0.225</v>
+        <v>2.57917717661093</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,7 +6788,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>7.18</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -6727,20 +6796,22 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.316313353916015</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
         <v>0.250092595777663</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="58" t="n">
+        <v>0.26</v>
+      </c>
       <c r="H8" s="67" t="n">
         <f aca="false">IF(G8=0,,G8/C8)</f>
-        <v>0</v>
+        <v>0.0362116991643454</v>
       </c>
       <c r="I8" s="68" t="n">
         <f aca="false">IF(G8=0,,G8-F8)</f>
-        <v>0</v>
+        <v>0.00990740422233699</v>
       </c>
       <c r="J8" s="61" t="n">
         <f aca="false">J7*(1-Diretrizes!E$5)</f>
@@ -6763,7 +6834,7 @@
       </c>
       <c r="C9" s="65" t="n">
         <f aca="false">IF(G8&lt;&gt;0,C8+G8,)</f>
-        <v>0</v>
+        <v>7.44</v>
       </c>
       <c r="D9" s="66" t="n">
         <f aca="false">D8*(1+J8)</f>
@@ -6771,20 +6842,22 @@
       </c>
       <c r="E9" s="65" t="n">
         <f aca="false">C9*J9</f>
-        <v>0</v>
+        <v>0.319573407981445</v>
       </c>
       <c r="F9" s="66" t="n">
         <f aca="false">D9*J9</f>
         <v>0.254582611950909</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58" t="n">
+        <v>0.52</v>
+      </c>
       <c r="H9" s="67" t="n">
         <f aca="false">IF(G9=0,,G9/C9)</f>
-        <v>0</v>
+        <v>0.0698924731182796</v>
       </c>
       <c r="I9" s="68" t="n">
         <f aca="false">IF(G9=0,,G9-F9)</f>
-        <v>0</v>
+        <v>0.265417388049091</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">J8*(1-Diretrizes!E$5)</f>
@@ -6796,7 +6869,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!E7</f>
@@ -6804,11 +6877,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 4'!Q2)</f>
-        <v>0</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6817,7 +6890,7 @@
       </c>
       <c r="C10" s="65" t="n">
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
-        <v>0</v>
+        <v>7.96</v>
       </c>
       <c r="D10" s="66" t="n">
         <f aca="false">D9*(1+J9)</f>
@@ -6825,20 +6898,22 @@
       </c>
       <c r="E10" s="65" t="n">
         <f aca="false">C10*J10</f>
-        <v>0</v>
+        <v>0.333361454212903</v>
       </c>
       <c r="F10" s="66" t="n">
         <f aca="false">D10*J10</f>
         <v>0.258879859433201</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="58" t="n">
+        <v>-0.2</v>
+      </c>
       <c r="H10" s="67" t="n">
         <f aca="false">IF(G10=0,,G10/C10)</f>
-        <v>0</v>
+        <v>-0.0251256281407035</v>
       </c>
       <c r="I10" s="68" t="n">
         <f aca="false">IF(G10=0,,G10-F10)</f>
-        <v>0</v>
+        <v>-0.458879859433201</v>
       </c>
       <c r="J10" s="61" t="n">
         <f aca="false">J9*(1-Diretrizes!E$5)</f>
@@ -6858,7 +6933,7 @@
       </c>
       <c r="C11" s="65" t="n">
         <f aca="false">IF(G10&lt;&gt;0,C10+G10,)</f>
-        <v>0</v>
+        <v>7.76</v>
       </c>
       <c r="D11" s="66" t="n">
         <f aca="false">D10*(1+J10)</f>
@@ -6866,20 +6941,22 @@
       </c>
       <c r="E11" s="65" t="n">
         <f aca="false">C11*J11</f>
-        <v>0</v>
+        <v>0.316860899820958</v>
       </c>
       <c r="F11" s="66" t="n">
         <f aca="false">D11*J11</f>
         <v>0.262978598154268</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="58" t="n">
+        <v>0.4</v>
+      </c>
       <c r="H11" s="67" t="n">
         <f aca="false">IF(G11=0,,G11/C11)</f>
-        <v>0</v>
+        <v>0.0515463917525773</v>
       </c>
       <c r="I11" s="68" t="n">
         <f aca="false">IF(G11=0,,G11-F11)</f>
-        <v>0</v>
+        <v>0.137021401845732</v>
       </c>
       <c r="J11" s="61" t="n">
         <f aca="false">J10*(1-Diretrizes!E$5)</f>
@@ -6900,7 +6977,7 @@
       </c>
       <c r="C12" s="65" t="n">
         <f aca="false">IF(G11&lt;&gt;0,C11+G11,)</f>
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="D12" s="66" t="n">
         <f aca="false">D11*(1+J11)</f>
@@ -6908,22 +6985,22 @@
       </c>
       <c r="E12" s="65" t="n">
         <f aca="false">C12*J12</f>
-        <v>0</v>
+        <v>0.324864087496848</v>
       </c>
       <c r="F12" s="66" t="n">
         <f aca="false">D12*J12</f>
         <v>0.266873778092641</v>
       </c>
       <c r="G12" s="58" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="H12" s="67" t="n">
         <f aca="false">IF(G12=0,,G12/C12)</f>
-        <v>0</v>
+        <v>0.0808823529411765</v>
       </c>
       <c r="I12" s="68" t="n">
         <f aca="false">IF(G12=0,,G12-F12)</f>
-        <v>0</v>
+        <v>0.393126221907359</v>
       </c>
       <c r="J12" s="61" t="n">
         <f aca="false">J11*(1-Diretrizes!E$5)</f>
@@ -6944,7 +7021,7 @@
       </c>
       <c r="C13" s="65" t="n">
         <f aca="false">IF(G12&lt;&gt;0,C12+G12,)</f>
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="D13" s="66" t="n">
         <f aca="false">D12*(1+J12)</f>
@@ -6952,22 +7029,22 @@
       </c>
       <c r="E13" s="65" t="n">
         <f aca="false">C13*J13</f>
-        <v>0</v>
+        <v>0.342361362797689</v>
       </c>
       <c r="F13" s="66" t="n">
         <f aca="false">D13*J13</f>
         <v>0.270561034588484</v>
       </c>
       <c r="G13" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="67" t="n">
         <f aca="false">IF(G13=0,,G13/C13)</f>
-        <v>0</v>
+        <v>0.113378684807256</v>
       </c>
       <c r="I13" s="68" t="n">
         <f aca="false">IF(G13=0,,G13-F13)</f>
-        <v>0</v>
+        <v>0.729438965411516</v>
       </c>
       <c r="J13" s="61" t="n">
         <f aca="false">J12*(1-Diretrizes!E$5)</f>
@@ -6990,7 +7067,7 @@
       </c>
       <c r="C14" s="65" t="n">
         <f aca="false">IF(G13&lt;&gt;0,C13+G13,)</f>
-        <v>0</v>
+        <v>9.82</v>
       </c>
       <c r="D14" s="66" t="n">
         <f aca="false">D13*(1+J13)</f>
@@ -6998,7 +7075,7 @@
       </c>
       <c r="E14" s="65" t="n">
         <f aca="false">C14*J14</f>
-        <v>0</v>
+        <v>0.371648397744498</v>
       </c>
       <c r="F14" s="66" t="n">
         <f aca="false">D14*J14</f>
@@ -8739,7 +8816,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>18.2284171302929</v>
       </c>
@@ -8747,18 +8824,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.263599833602561</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -8791,8 +8868,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8851,7 +8928,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -8881,14 +8960,16 @@
         <f aca="false">D3*J3</f>
         <v>0.3</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>-3</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.3</v>
+        <v>-3.3</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!D4</f>
@@ -8899,14 +8980,14 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8915,7 +8996,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -8923,7 +9004,7 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.14625</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
@@ -8951,11 +9032,11 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8997,19 +9078,19 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9051,11 +9132,11 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -9100,19 +9181,19 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
-        <v>-0.3</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9198,7 +9279,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!F7</f>
@@ -9206,11 +9287,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 5'!Q2)</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11135,7 +11216,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>24.3045561737238</v>
       </c>
@@ -11143,18 +11224,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.351466444803415</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -11247,7 +11328,7 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87"/>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -11297,10 +11378,10 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <v>9</v>
@@ -11350,7 +11431,7 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
@@ -11398,7 +11479,7 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
@@ -11406,7 +11487,7 @@
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
@@ -11454,7 +11535,7 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
@@ -11505,7 +11586,7 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
@@ -11513,7 +11594,7 @@
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I401)</f>
@@ -11607,7 +11688,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!G7</f>
@@ -11615,7 +11696,7 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5)</f>
@@ -11630,7 +11711,7 @@
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="89" t="n">
+      <c r="D10" s="90" t="n">
         <f aca="false">D9*(1+J9)</f>
         <v>12.363059106241</v>
       </c>
@@ -13554,7 +13635,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>36.4568342605857</v>
       </c>
@@ -13562,18 +13643,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.527199667205122</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
